--- a/Excel-XLSX/UN-AFG.xlsx
+++ b/Excel-XLSX/UN-AFG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>tW5bq7</t>
+    <t>rmCC7r</t>
   </si>
   <si>
     <t>1993</t>
@@ -477,16 +477,16 @@
     <t>2023</t>
   </si>
   <si>
-    <t>3252741</t>
-  </si>
-  <si>
-    <t>1261</t>
+    <t>3222397</t>
+  </si>
+  <si>
+    <t>31605</t>
   </si>
   <si>
     <t>33712</t>
   </si>
   <si>
-    <t>947281</t>
+    <t>1584157</t>
   </si>
   <si>
     <t>32</t>
@@ -810,7 +810,10 @@
     <t>97</t>
   </si>
   <si>
-    <t>191</t>
+    <t>34791</t>
+  </si>
+  <si>
+    <t>203</t>
   </si>
   <si>
     <t>1992</t>
@@ -1464,8 +1467,8 @@
       <c r="U2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>30</v>
+      <c r="V2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -1532,8 +1535,8 @@
       <c r="U3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>30</v>
+      <c r="V3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -1600,8 +1603,8 @@
       <c r="U4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>30</v>
+      <c r="V4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1668,8 +1671,8 @@
       <c r="U5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>30</v>
+      <c r="V5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1736,8 +1739,8 @@
       <c r="U6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>30</v>
+      <c r="V6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1804,8 +1807,8 @@
       <c r="U7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>30</v>
+      <c r="V7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1872,8 +1875,8 @@
       <c r="U8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>30</v>
+      <c r="V8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1940,8 +1943,8 @@
       <c r="U9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>30</v>
+      <c r="V9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -2008,8 +2011,8 @@
       <c r="U10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>30</v>
+      <c r="V10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -2076,8 +2079,8 @@
       <c r="U11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>30</v>
+      <c r="V11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2144,8 +2147,8 @@
       <c r="U12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>30</v>
+      <c r="V12" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -2212,8 +2215,8 @@
       <c r="U13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>30</v>
+      <c r="V13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -2280,8 +2283,8 @@
       <c r="U14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>30</v>
+      <c r="V14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -2348,8 +2351,8 @@
       <c r="U15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>30</v>
+      <c r="V15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -2416,8 +2419,8 @@
       <c r="U16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>30</v>
+      <c r="V16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2484,8 +2487,8 @@
       <c r="U17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>30</v>
+      <c r="V17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -2552,8 +2555,8 @@
       <c r="U18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>30</v>
+      <c r="V18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -2620,8 +2623,8 @@
       <c r="U19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>30</v>
+      <c r="V19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -2688,8 +2691,8 @@
       <c r="U20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>30</v>
+      <c r="V20" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2756,8 +2759,8 @@
       <c r="U21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>30</v>
+      <c r="V21" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -2824,8 +2827,8 @@
       <c r="U22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>30</v>
+      <c r="V22" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -2892,8 +2895,8 @@
       <c r="U23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>30</v>
+      <c r="V23" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -2960,8 +2963,8 @@
       <c r="U24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>30</v>
+      <c r="V24" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3028,8 +3031,8 @@
       <c r="U25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>30</v>
+      <c r="V25" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -3096,8 +3099,8 @@
       <c r="U26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>30</v>
+      <c r="V26" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -3164,8 +3167,8 @@
       <c r="U27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>30</v>
+      <c r="V27" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -3232,8 +3235,8 @@
       <c r="U28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>30</v>
+      <c r="V28" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -3300,8 +3303,8 @@
       <c r="U29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>30</v>
+      <c r="V29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -3572,8 +3575,8 @@
       <c r="U33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>30</v>
+      <c r="V33" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -3640,8 +3643,8 @@
       <c r="U34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>30</v>
+      <c r="V34" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -3708,8 +3711,8 @@
       <c r="U35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>30</v>
+      <c r="V35" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -3776,8 +3779,8 @@
       <c r="U36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>30</v>
+      <c r="V36" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -3980,8 +3983,8 @@
       <c r="U39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>30</v>
+      <c r="V39" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40">
@@ -4048,8 +4051,8 @@
       <c r="U40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>30</v>
+      <c r="V40" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -4116,8 +4119,8 @@
       <c r="U41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>30</v>
+      <c r="V41" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -4184,8 +4187,8 @@
       <c r="U42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>30</v>
+      <c r="V42" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -4252,8 +4255,8 @@
       <c r="U43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>30</v>
+      <c r="V43" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44">
@@ -4320,8 +4323,8 @@
       <c r="U44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>30</v>
+      <c r="V44" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -4388,8 +4391,8 @@
       <c r="U45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>30</v>
+      <c r="V45" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -4456,8 +4459,8 @@
       <c r="U46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>30</v>
+      <c r="V46" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -4524,8 +4527,8 @@
       <c r="U47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>30</v>
+      <c r="V47" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -4592,8 +4595,8 @@
       <c r="U48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>30</v>
+      <c r="V48" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -4660,8 +4663,8 @@
       <c r="U49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>30</v>
+      <c r="V49" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -4728,8 +4731,8 @@
       <c r="U50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>30</v>
+      <c r="V50" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51">
@@ -4796,8 +4799,8 @@
       <c r="U51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>30</v>
+      <c r="V51" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52">
@@ -4864,8 +4867,8 @@
       <c r="U52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>30</v>
+      <c r="V52" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53">
@@ -4932,8 +4935,8 @@
       <c r="U53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>30</v>
+      <c r="V53" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54">
@@ -5000,8 +5003,8 @@
       <c r="U54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>30</v>
+      <c r="V54" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55">
@@ -5068,8 +5071,8 @@
       <c r="U55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>30</v>
+      <c r="V55" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56">
@@ -5136,8 +5139,8 @@
       <c r="U56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>30</v>
+      <c r="V56" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57">
@@ -5204,8 +5207,8 @@
       <c r="U57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>30</v>
+      <c r="V57" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -5272,8 +5275,8 @@
       <c r="U58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>30</v>
+      <c r="V58" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -5340,8 +5343,8 @@
       <c r="U59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>30</v>
+      <c r="V59" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60">
@@ -5408,8 +5411,8 @@
       <c r="U60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>30</v>
+      <c r="V60" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61">
@@ -5476,8 +5479,8 @@
       <c r="U61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>30</v>
+      <c r="V61" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -5544,8 +5547,8 @@
       <c r="U62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>30</v>
+      <c r="V62" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="63">
@@ -5612,8 +5615,8 @@
       <c r="U63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>30</v>
+      <c r="V63" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64">
@@ -5680,8 +5683,8 @@
       <c r="U64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>30</v>
+      <c r="V64" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65">
@@ -5748,8 +5751,8 @@
       <c r="U65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>30</v>
+      <c r="V65" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66">
@@ -5861,10 +5864,10 @@
         <v>27</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>28</v>
@@ -5952,8 +5955,8 @@
       <c r="U68" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>30</v>
+      <c r="V68" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69">
@@ -6020,8 +6023,8 @@
       <c r="U69" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>30</v>
+      <c r="V69" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -6088,8 +6091,8 @@
       <c r="U70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>30</v>
+      <c r="V70" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -6156,8 +6159,8 @@
       <c r="U71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>30</v>
+      <c r="V71" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72">
@@ -6224,8 +6227,8 @@
       <c r="U72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>30</v>
+      <c r="V72" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73">
@@ -6292,8 +6295,8 @@
       <c r="U73" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>30</v>
+      <c r="V73" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74">
@@ -6360,8 +6363,8 @@
       <c r="U74" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>30</v>
+      <c r="V74" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75">
@@ -6428,8 +6431,8 @@
       <c r="U75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>30</v>
+      <c r="V75" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="76">
@@ -6496,8 +6499,8 @@
       <c r="U76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>30</v>
+      <c r="V76" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77">
@@ -6564,8 +6567,8 @@
       <c r="U77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>30</v>
+      <c r="V77" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="78">
@@ -6632,8 +6635,8 @@
       <c r="U78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>30</v>
+      <c r="V78" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="79">
@@ -6700,8 +6703,8 @@
       <c r="U79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>30</v>
+      <c r="V79" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="80">
@@ -6768,8 +6771,8 @@
       <c r="U80" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>30</v>
+      <c r="V80" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -6836,8 +6839,8 @@
       <c r="U81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>30</v>
+      <c r="V81" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="82">
@@ -6904,8 +6907,8 @@
       <c r="U82" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>30</v>
+      <c r="V82" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83">
@@ -6972,8 +6975,8 @@
       <c r="U83" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>30</v>
+      <c r="V83" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84">
@@ -7040,8 +7043,8 @@
       <c r="U84" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>30</v>
+      <c r="V84" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85">
@@ -7108,8 +7111,8 @@
       <c r="U85" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>30</v>
+      <c r="V85" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86">
@@ -7176,8 +7179,8 @@
       <c r="U86" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>30</v>
+      <c r="V86" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="87">
@@ -7244,8 +7247,8 @@
       <c r="U87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>30</v>
+      <c r="V87" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="88">
@@ -7312,8 +7315,8 @@
       <c r="U88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>30</v>
+      <c r="V88" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="89">
@@ -7380,8 +7383,8 @@
       <c r="U89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>30</v>
+      <c r="V89" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="90">
@@ -7448,8 +7451,8 @@
       <c r="U90" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>30</v>
+      <c r="V90" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -7516,8 +7519,8 @@
       <c r="U91" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>30</v>
+      <c r="V91" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="92">
@@ -7584,8 +7587,8 @@
       <c r="U92" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>30</v>
+      <c r="V92" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="93">
@@ -7652,8 +7655,8 @@
       <c r="U93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>30</v>
+      <c r="V93" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="94">
@@ -7720,8 +7723,8 @@
       <c r="U94" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>30</v>
+      <c r="V94" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="95">
@@ -7788,8 +7791,8 @@
       <c r="U95" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>30</v>
+      <c r="V95" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="96">
@@ -7856,8 +7859,8 @@
       <c r="U96" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>30</v>
+      <c r="V96" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="97">
@@ -7969,10 +7972,10 @@
         <v>27</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>28</v>
@@ -8010,19 +8013,19 @@
         <v>222</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>25</v>
@@ -8037,7 +8040,7 @@
         <v>27</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>28</v>
@@ -8060,8 +8063,8 @@
       <c r="U99" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>30</v>
+      <c r="V99" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="100">
@@ -8081,16 +8084,16 @@
         <v>24</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>25</v>
@@ -8105,7 +8108,7 @@
         <v>27</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>28</v>
@@ -8128,8 +8131,8 @@
       <c r="U100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>30</v>
+      <c r="V100" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="101">
@@ -8143,22 +8146,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>25</v>
@@ -8173,13 +8176,13 @@
         <v>27</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>28</v>
@@ -8196,8 +8199,8 @@
       <c r="U101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>30</v>
+      <c r="V101" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="102">
@@ -8217,16 +8220,16 @@
         <v>34</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>25</v>
@@ -8241,13 +8244,13 @@
         <v>27</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>28</v>
@@ -8264,8 +8267,8 @@
       <c r="U102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>30</v>
+      <c r="V102" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="103">
@@ -8279,22 +8282,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>25</v>
@@ -8309,13 +8312,13 @@
         <v>27</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>28</v>
@@ -8332,8 +8335,8 @@
       <c r="U103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>30</v>
+      <c r="V103" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="104">
@@ -8347,22 +8350,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>25</v>
@@ -8383,7 +8386,7 @@
         <v>28</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>28</v>
@@ -8400,8 +8403,8 @@
       <c r="U104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>30</v>
+      <c r="V104" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="105">
@@ -8415,22 +8418,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>25</v>
@@ -8468,8 +8471,8 @@
       <c r="U105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>30</v>
+      <c r="V105" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="106">
@@ -8483,22 +8486,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>25</v>
@@ -8536,8 +8539,8 @@
       <c r="U106" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>30</v>
+      <c r="V106" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="107">
@@ -8551,22 +8554,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>25</v>
@@ -8604,8 +8607,8 @@
       <c r="U107" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>30</v>
+      <c r="V107" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="108">
@@ -8619,22 +8622,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>25</v>
@@ -8672,8 +8675,8 @@
       <c r="U108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>30</v>
+      <c r="V108" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="109">
@@ -8687,22 +8690,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>25</v>
@@ -8740,8 +8743,8 @@
       <c r="U109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>30</v>
+      <c r="V109" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="110">
@@ -8755,22 +8758,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>25</v>
@@ -8808,8 +8811,8 @@
       <c r="U110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>30</v>
+      <c r="V110" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="111">
@@ -8823,22 +8826,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>25</v>
@@ -8876,8 +8879,8 @@
       <c r="U111" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>30</v>
+      <c r="V111" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="112">
@@ -8891,22 +8894,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>25</v>
@@ -8944,8 +8947,8 @@
       <c r="U112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>30</v>
+      <c r="V112" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="113">
@@ -8959,22 +8962,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>25</v>
@@ -9027,22 +9030,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>25</v>
@@ -9095,22 +9098,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>25</v>
@@ -9148,8 +9151,8 @@
       <c r="U115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>30</v>
+      <c r="V115" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="116">
@@ -9163,22 +9166,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>25</v>
@@ -9196,7 +9199,7 @@
         <v>28</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>28</v>
@@ -9216,8 +9219,8 @@
       <c r="U116" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>30</v>
+      <c r="V116" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="117">
@@ -9231,22 +9234,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>25</v>
@@ -9264,7 +9267,7 @@
         <v>28</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>28</v>
@@ -9284,8 +9287,8 @@
       <c r="U117" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>30</v>
+      <c r="V117" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="118">
@@ -9299,22 +9302,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>25</v>
@@ -9352,8 +9355,8 @@
       <c r="U118" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>30</v>
+      <c r="V118" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="119">
@@ -9367,22 +9370,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>25</v>
@@ -9420,8 +9423,8 @@
       <c r="U119" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>30</v>
+      <c r="V119" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="120">
@@ -9435,22 +9438,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>25</v>
@@ -9488,8 +9491,8 @@
       <c r="U120" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>30</v>
+      <c r="V120" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="121">
@@ -9503,22 +9506,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>25</v>
@@ -9556,8 +9559,8 @@
       <c r="U121" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>30</v>
+      <c r="V121" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="122">
@@ -9574,19 +9577,19 @@
         <v>250</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>25</v>
@@ -9624,8 +9627,8 @@
       <c r="U122" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>30</v>
+      <c r="V122" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-AFG.xlsx
+++ b/Excel-XLSX/UN-AFG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>rmCC7r</t>
+    <t>MGuy8C</t>
   </si>
   <si>
     <t>1990</t>
@@ -951,16 +951,16 @@
     <t>2024</t>
   </si>
   <si>
-    <t>3221286</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>72883</t>
-  </si>
-  <si>
-    <t>1738747</t>
+    <t>3199710</t>
+  </si>
+  <si>
+    <t>22687</t>
+  </si>
+  <si>
+    <t>72886</t>
+  </si>
+  <si>
+    <t>600000</t>
   </si>
   <si>
     <t>123</t>
@@ -972,13 +972,16 @@
     <t>125</t>
   </si>
   <si>
-    <t>34795</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
     <t>126</t>
+  </si>
+  <si>
+    <t>20827</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>127</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1366,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -9820,16 +9823,16 @@
         <v>310</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>29</v>
@@ -9844,10 +9847,10 @@
         <v>31</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>33</v>
@@ -9888,16 +9891,16 @@
         <v>310</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>29</v>
@@ -9912,10 +9915,10 @@
         <v>31</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>319</v>
+        <v>165</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>33</v>
@@ -9950,60 +9953,128 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>310</v>
       </c>
       <c r="F127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V127" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O127" s="2" t="s">
+      <c r="J128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O128" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U127" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V127" s="2" t="s">
+      <c r="P128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V128" s="2" t="s">
         <v>33</v>
       </c>
     </row>
